--- a/沈阳鹏斓面辅料采购程序/表6.单耗表.xlsx
+++ b/沈阳鹏斓面辅料采购程序/表6.单耗表.xlsx
@@ -21,6 +21,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">裁单编号 </t>
     </r>
     <r>
@@ -40,11 +47,18 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>：20PL004-3</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>：20PL004-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>制表日期 DATE：</t>
     </r>
     <r>
@@ -60,6 +74,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>款式 STYLE：</t>
     </r>
     <r>
@@ -75,12 +96,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t>加工厂：</t>
     </r>
     <r>
@@ -96,7 +111,7 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -105,6 +120,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>面料成份 FABRIC CONTENT：</t>
     </r>
     <r>
@@ -3067,14 +3089,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;* #,##0.00_-;\-&quot;￥&quot;* #,##0.00_-;_-&quot;￥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;￥&quot;* #,##0_-;\-&quot;￥&quot;* #,##0_-;_-&quot;￥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="87">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3470,6 +3492,33 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
@@ -3478,7 +3527,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="10"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3490,9 +3539,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color indexed="23"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3505,47 +3578,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3557,38 +3607,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
+      <sz val="12"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3635,6 +3657,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -3699,31 +3728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="51"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,19 +3764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,7 +3788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="36"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,25 +3800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3813,19 +3824,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="52"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3870,63 +3899,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="62"/>
-      </top>
-      <bottom style="double">
+      <bottom style="thick">
         <color indexed="62"/>
       </bottom>
       <diagonal/>
@@ -3956,6 +3929,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3968,7 +3971,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
         <color indexed="62"/>
       </bottom>
       <diagonal/>
@@ -3978,148 +4007,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="74" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="65" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4199,7 +4228,7 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4211,19 +4240,19 @@
     <xf numFmtId="49" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="17" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4235,7 +4264,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4244,16 +4273,16 @@
     <xf numFmtId="49" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="21" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4271,7 +4300,7 @@
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4286,10 +4315,10 @@
     <xf numFmtId="49" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4364,7 +4393,7 @@
     <xf numFmtId="49" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="33" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4418,7 +4447,7 @@
     <xf numFmtId="49" fontId="44" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="44" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="44" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4427,16 +4456,16 @@
     <xf numFmtId="49" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="44" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="45" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="46" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4454,13 +4483,13 @@
     <xf numFmtId="49" fontId="44" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="44" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="44" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4490,10 +4519,10 @@
     <xf numFmtId="49" fontId="50" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="50" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="50" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="49" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="49" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4920,7 +4949,7 @@
   <dimension ref="A1:T82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
